--- a/data/processed/cscc_dr_2p5.xlsx
+++ b/data/processed/cscc_dr_2p5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,21 @@
           <t>mean_GtC</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mean_2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>median_GtC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>median_2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -510,7 +525,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.150699125838331</v>
+        <v>1.121718751691772</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3061459475141298</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8931469212365873</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2437628060143524</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +567,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3.064718437098484</v>
+        <v>2.98753345888251</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8153748523150955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.842605133787814</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7758201784355386</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +609,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.06490462231291796</v>
+        <v>0.06326999846013706</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01726801268016841</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.05531354338288403</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0150964910979487</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +651,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8.067633881149339</v>
+        <v>7.86445040503187</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.146411136744506</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.363350320039585</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.00964801311124</v>
       </c>
     </row>
     <row r="6">
@@ -642,7 +693,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3.662327309978054</v>
+        <v>3.570091543645129</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9743699627852427</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.44734952285406</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9408705029623523</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +735,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-0.06305318333880322</v>
+        <v>-0.06146518800339455</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.01677543340703999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.0616927278166552</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.0168375348844583</v>
       </c>
     </row>
     <row r="8">
@@ -708,7 +777,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3.561841638522239</v>
+        <v>3.472136605279979</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9476355363755401</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.281860593665487</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8957043104982225</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +819,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.9032486919482993</v>
+        <v>-0.8805003605623852</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.2403112337779436</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.8572659068020151</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.2339699527298076</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +861,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.1496518021943073</v>
+        <v>0.1458828193890599</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.03981517996426309</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1167050307831013</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0318518097115451</v>
       </c>
     </row>
     <row r="11">
@@ -807,7 +903,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.6866366588851185</v>
+        <v>0.6693437046884801</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1826811421093014</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6588391191153594</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1798141700642356</v>
       </c>
     </row>
     <row r="12">
@@ -840,7 +945,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-0.3946291121530785</v>
+        <v>-0.3846903722492059</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.1049919138234732</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.4010403583703248</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.1094542462801105</v>
       </c>
     </row>
     <row r="13">
@@ -873,7 +987,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.339437350712521</v>
+        <v>1.305703601639543</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3563601532859016</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.234323329815197</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3368786380499992</v>
       </c>
     </row>
     <row r="14">
@@ -906,7 +1029,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4.337900515499096</v>
+        <v>4.228650428202708</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.154107649618643</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.118017101787951</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.123912964461777</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +1071,16 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>10.2303521346216</v>
+        <v>9.972700567973897</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.721806923573662</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9.303332755141746</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.539119201730826</v>
       </c>
     </row>
     <row r="16">
@@ -972,7 +1113,16 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-0.1227502970452106</v>
+        <v>-0.1196588290366816</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.03265797735717293</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1158550779946898</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.03161983569724065</v>
       </c>
     </row>
     <row r="17">
@@ -1005,7 +1155,16 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.08077050905596581</v>
+        <v>0.07873630261582047</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02148916556108637</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0749275241607268</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02044965179059138</v>
       </c>
     </row>
     <row r="18">
@@ -1038,7 +1197,16 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-0.06754262930940556</v>
+        <v>-0.06584156721221932</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.01796986004700309</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.06639385277445649</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.01812059300612896</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1239,16 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-0.7736052101701465</v>
+        <v>-0.7541219517500751</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.2058193099754572</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.7364312250924342</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.2009910548833063</v>
       </c>
     </row>
     <row r="20">
@@ -1104,7 +1281,16 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.0472155985314642</v>
+        <v>0.04602647299875931</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01256181031625527</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.04497117361091494</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01227379192437635</v>
       </c>
     </row>
     <row r="21">
@@ -1137,7 +1323,16 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1.27800303322109</v>
+        <v>1.245816508323714</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3400154225774328</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.088461816892939</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2970692731694703</v>
       </c>
     </row>
     <row r="22">
@@ -1170,7 +1365,16 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>23.45376133500063</v>
+        <v>22.86307801616415</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.23992303934611</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21.33778105807273</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.823630201439062</v>
       </c>
     </row>
     <row r="23">
@@ -1203,7 +1407,16 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.2464194498401245</v>
+        <v>0.2402133724277051</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.06556041823900248</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2308291295084938</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.06299921656891207</v>
       </c>
     </row>
     <row r="24">
@@ -1236,7 +1449,16 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.1408911138109794</v>
+        <v>0.1373427690695223</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.03748438020456395</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1209476805903206</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.03300973815238006</v>
       </c>
     </row>
     <row r="25">
@@ -1269,7 +1491,16 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.5008811615366352</v>
+        <v>0.4882664622304899</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.133260497333649</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4678718888939608</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1276942928204041</v>
       </c>
     </row>
     <row r="26">
@@ -1302,7 +1533,16 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.3739140382363689</v>
+        <v>0.3644970077690465</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.09948062439111531</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3519580860573004</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0960584296007916</v>
       </c>
     </row>
     <row r="27">
@@ -1335,7 +1575,16 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>-8.185507817747371</v>
+        <v>-7.979355684829847</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-2.17777174804308</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-7.829640724442383</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-2.136910678068336</v>
       </c>
     </row>
     <row r="28">
@@ -1368,7 +1617,16 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>-1.101344328567296</v>
+        <v>-1.073606955704673</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.2930149988276947</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-1.050648891091317</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.2867491514987219</v>
       </c>
     </row>
     <row r="29">
@@ -1401,7 +1659,16 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>-0.5414225202309575</v>
+        <v>-0.5277867862190498</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.1440466119593476</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.5154150450455871</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.140670045045193</v>
       </c>
     </row>
     <row r="30">
@@ -1434,7 +1701,16 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>61.19593243190997</v>
+        <v>59.65471198748471</v>
+      </c>
+      <c r="J30" t="n">
+        <v>16.28130785684626</v>
+      </c>
+      <c r="K30" t="n">
+        <v>54.07124489355239</v>
+      </c>
+      <c r="L30" t="n">
+        <v>14.75743583339312</v>
       </c>
     </row>
     <row r="31">
@@ -1467,7 +1743,16 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.894600792984135</v>
+        <v>2.821700230098513</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.7701146916207734</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.691316630808618</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.7345296481464568</v>
       </c>
     </row>
     <row r="32">
@@ -1500,7 +1785,16 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>8.40982895013919</v>
+        <v>8.198027286254169</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.237452861968932</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8.039145889023391</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.194090035213808</v>
       </c>
     </row>
     <row r="33">
@@ -1533,7 +1827,16 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1.075457152934838</v>
+        <v>1.04837174896537</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.2861276607438238</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.019946656845045</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.278369720754652</v>
       </c>
     </row>
     <row r="34">
@@ -1566,7 +1869,16 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6.321602986935155</v>
+        <v>6.162393324171298</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.681875907251992</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.848718456826736</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.596265954374109</v>
       </c>
     </row>
     <row r="35">
@@ -1599,7 +1911,16 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.06036590860580737</v>
+        <v>0.0588455923234614</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01606047825421981</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.05566357763502276</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.01519202446370709</v>
       </c>
     </row>
     <row r="36">
@@ -1632,7 +1953,16 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.02662861626626027</v>
+        <v>0.02595797418000757</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.007084599939958399</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0248751492631675</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.006789069122043532</v>
       </c>
     </row>
     <row r="37">
@@ -1665,7 +1995,16 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.7174651943990056</v>
+        <v>0.6993958230890475</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.1908831394893689</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6486635764218317</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.1770370022985348</v>
       </c>
     </row>
     <row r="38">
@@ -1698,7 +2037,16 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.637643770982474</v>
+        <v>0.6215847033770893</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.1696464801793366</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5756834653689237</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.1571188497185927</v>
       </c>
     </row>
     <row r="39">
@@ -1731,7 +2079,16 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.1234447257542561</v>
+        <v>0.1203357685486344</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.03284273159078449</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1083467516936288</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.02957062000371966</v>
       </c>
     </row>
     <row r="40">
@@ -1764,7 +2121,16 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>-1.186672828718042</v>
+        <v>-1.156786456343552</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.3157168276046813</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-1.130452303525845</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.308529558822556</v>
       </c>
     </row>
     <row r="41">
@@ -1797,7 +2163,16 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>-4.767786034695486</v>
+        <v>-4.647709274373319</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1.268479605451234</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-4.656339862838609</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-1.270835115403551</v>
       </c>
     </row>
     <row r="42">
@@ -1830,7 +2205,16 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.1622546248939291</v>
+        <v>0.1581682398165007</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.04316818772284407</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1519918397350536</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.04148248901065874</v>
       </c>
     </row>
     <row r="43">
@@ -1863,7 +2247,16 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>-0.5715866243502472</v>
+        <v>-0.5571912069393139</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.1520718359550529</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.5498591076977375</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.1500707171664131</v>
       </c>
     </row>
     <row r="44">
@@ -1896,7 +2289,16 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.453930117831889</v>
+        <v>1.417312866761135</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3868211972601352</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.382555707243639</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.3773350729376744</v>
       </c>
     </row>
     <row r="45">
@@ -1929,7 +2331,16 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2.857625967095462</v>
+        <v>2.785656615735248</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7602774606264324</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.630853157252324</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.7180276084203941</v>
       </c>
     </row>
     <row r="46">
@@ -1962,7 +2373,16 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1.508956939396733</v>
+        <v>1.470953837028071</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4014612000622464</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.356021789686422</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.3700932832113598</v>
       </c>
     </row>
     <row r="47">
@@ -1995,7 +2415,16 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>15.24385695590725</v>
+        <v>14.85994019773907</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.055660534317431</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14.04114025607576</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.832188934518494</v>
       </c>
     </row>
     <row r="48">
@@ -2028,7 +2457,16 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.2655853007795487</v>
+        <v>0.258896531133695</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.07065953360635781</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2514602601672494</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.06862998367010081</v>
       </c>
     </row>
     <row r="49">
@@ -2061,7 +2499,16 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3.094507967548864</v>
+        <v>3.016572739577139</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8233004201902672</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.651542136360098</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.7236741638537385</v>
       </c>
     </row>
     <row r="50">
@@ -2094,7 +2541,16 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>-0.2120882078162924</v>
+        <v>-0.2067467632313654</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05642651834917177</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.2038280523377194</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05562992694806754</v>
       </c>
     </row>
     <row r="51">
@@ -2127,7 +2583,16 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>7.893951072050955</v>
+        <v>7.695141799995586</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.100202456330673</v>
+      </c>
+      <c r="K51" t="n">
+        <v>7.058222485836649</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.926370765785112</v>
       </c>
     </row>
     <row r="52">
@@ -2160,7 +2625,16 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>-1.78488024829493</v>
+        <v>-1.73992801339625</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.4748711826954831</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1.718691390371083</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.469075161127479</v>
       </c>
     </row>
     <row r="53">
@@ -2193,7 +2667,16 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.05262356936768738</v>
+        <v>0.05129824401116386</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.01400061244846175</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.04771929923419551</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0130238262102062</v>
       </c>
     </row>
     <row r="54">
@@ -2226,7 +2709,16 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>-0.4070248236206286</v>
+        <v>-0.3967738975439538</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1082898191986774</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.5403967054153639</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1474881837924028</v>
       </c>
     </row>
     <row r="55">
@@ -2259,7 +2751,16 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.400086040265959</v>
+        <v>0.3900098675485463</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1064437411431622</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3757753400804724</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.1025587718560241</v>
       </c>
     </row>
     <row r="56">
@@ -2292,7 +2793,16 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>-3.373843129007983</v>
+        <v>-3.28887284095009</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8976181334470769</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-3.29871568010639</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.9003044978456305</v>
       </c>
     </row>
     <row r="57">
@@ -2325,7 +2835,16 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.000199058234873329</v>
+        <v>0.0001940449503456468</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.295986636071147e-05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.006056005909597471</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.001652840040829004</v>
       </c>
     </row>
     <row r="58">
@@ -2358,7 +2877,16 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>4.442093907558487</v>
+        <v>4.330219708174344</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.181828522973347</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.127925959212479</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.126617346946637</v>
       </c>
     </row>
     <row r="59">
@@ -2391,7 +2919,16 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2.137633924636648</v>
+        <v>2.083797583291368</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5687220478415307</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.99545507901143</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.544611102350281</v>
       </c>
     </row>
     <row r="60">
@@ -2424,7 +2961,16 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.2580027285645905</v>
+        <v>0.2515049261097675</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.06864217415659593</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.2476834354055343</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.06759919088578993</v>
       </c>
     </row>
     <row r="61">
@@ -2457,7 +3003,16 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.2154560774817583</v>
+        <v>0.2100298130505392</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.05732254722995066</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2040143238698545</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.05568076524832272</v>
       </c>
     </row>
     <row r="62">
@@ -2490,7 +3045,16 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.3461933789030712</v>
+        <v>0.3374744936424579</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0921054840727232</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.3207200407018551</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.08753276220028795</v>
       </c>
     </row>
     <row r="63">
@@ -2523,7 +3087,16 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.8579891040151122</v>
+        <v>0.8363806360066621</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2282698242376261</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.7151305717717316</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.1951775577979617</v>
       </c>
     </row>
     <row r="64">
@@ -2556,7 +3129,16 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2.268043659354123</v>
+        <v>2.210922946951628</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.6034178348667106</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.159879304307819</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.5894867096909985</v>
       </c>
     </row>
     <row r="65">
@@ -2589,7 +3171,16 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.06152125958987534</v>
+        <v>0.05997184577626594</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.01636786183850053</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.05753442675515408</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01570262738950712</v>
       </c>
     </row>
     <row r="66">
@@ -2622,7 +3213,16 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1.106567452723376</v>
+        <v>1.078698535403251</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2944046221078743</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.063125941179711</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.2901544599289604</v>
       </c>
     </row>
     <row r="67">
@@ -2655,7 +3255,16 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.01924047286681849</v>
+        <v>0.01875590127906232</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.005118968689700414</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0161582401584589</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.004410000043247516</v>
       </c>
     </row>
     <row r="68">
@@ -2688,7 +3297,16 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.7192828679928236</v>
+        <v>0.7011677185470849</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.1913667354113223</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.6704878666894611</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.1829934133977787</v>
       </c>
     </row>
     <row r="69">
@@ -2721,7 +3339,16 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>-0.1253785485537475</v>
+        <v>-0.1222208879929185</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.03335722925570919</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.140160395371527</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.03825338301624644</v>
       </c>
     </row>
     <row r="70">
@@ -2754,7 +3381,16 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>30.79893538082093</v>
+        <v>30.02326374728108</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8.194122201768854</v>
+      </c>
+      <c r="K70" t="n">
+        <v>28.48048819212377</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.773059004400591</v>
       </c>
     </row>
     <row r="71">
@@ -2787,7 +3423,16 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>200.6955864405566</v>
+        <v>195.6410651899447</v>
+      </c>
+      <c r="J71" t="n">
+        <v>53.39548722432987</v>
+      </c>
+      <c r="K71" t="n">
+        <v>186.1094843540949</v>
+      </c>
+      <c r="L71" t="n">
+        <v>50.79407324074644</v>
       </c>
     </row>
     <row r="72">
@@ -2820,7 +3465,16 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>-0.4132353288420759</v>
+        <v>-0.4028279911014698</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.1099421373093531</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.407441563245542</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.1112013000124296</v>
       </c>
     </row>
     <row r="73">
@@ -2853,7 +3507,16 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5.482721601515428</v>
+        <v>5.344639178590513</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.458689732148066</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4.802128015886639</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.310624458484345</v>
       </c>
     </row>
     <row r="74">
@@ -2886,7 +3549,16 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6.044529682000781</v>
+        <v>5.892298114433764</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.608159965729739</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5.651823399504845</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.542528220388877</v>
       </c>
     </row>
     <row r="75">
@@ -2919,7 +3591,16 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>-0.1677661708121427</v>
+        <v>-0.163540977370956</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.04463454622569758</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.1613255141458444</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.04402988923194443</v>
       </c>
     </row>
     <row r="76">
@@ -2952,7 +3633,16 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3.348582752716972</v>
+        <v>3.264248647601742</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.890897556659864</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3.0863466668367</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.8423435226082696</v>
       </c>
     </row>
     <row r="77">
@@ -2985,7 +3675,16 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2.08190976346993</v>
+        <v>2.02947683593053</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5538965163565855</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.885902032357542</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.5147112533726915</v>
       </c>
     </row>
     <row r="78">
@@ -3018,7 +3717,16 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.1386514243473583</v>
+        <v>0.1351594862174737</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.03688850606372098</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1273422401002041</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.03475497819328714</v>
       </c>
     </row>
     <row r="79">
@@ -3051,7 +3759,16 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1.153061829873526</v>
+        <v>1.124021950991628</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.3067745499431298</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.056075827864658</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.2882303023648083</v>
       </c>
     </row>
     <row r="80">
@@ -3084,7 +3801,16 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>5.266963300192281</v>
+        <v>5.134314753210407</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.401286777622928</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4.508821142555242</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.230573455937566</v>
       </c>
     </row>
     <row r="81">
@@ -3117,7 +3843,16 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>-1.896572224223629</v>
+        <v>-1.848807025293865</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.5045870702221248</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-1.82387648413448</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.4977828832244761</v>
       </c>
     </row>
     <row r="82">
@@ -3150,7 +3885,16 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3.725503589144995</v>
+        <v>3.631676727306447</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9911781460989211</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3.318003324892036</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.9055685930382196</v>
       </c>
     </row>
     <row r="83">
@@ -3183,7 +3927,16 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>-0.1929754740939682</v>
+        <v>-0.1881153839845936</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.05134153493029301</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.1871198713782328</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.05106983389143908</v>
       </c>
     </row>
     <row r="84">
@@ -3216,7 +3969,16 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1.64410268405592</v>
+        <v>1.602695934151083</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.4374170125958195</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.556427424389464</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.4247891442110981</v>
       </c>
     </row>
     <row r="85">
@@ -3249,7 +4011,16 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>-1.00052426444597</v>
+        <v>-0.9753260463581347</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.2661916065387922</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-1.09323958679715</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.2983732496717112</v>
       </c>
     </row>
     <row r="86">
@@ -3282,7 +4053,16 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3.317612791418929</v>
+        <v>3.234058665227441</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.8826579326494106</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3.102973948666395</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.8468815362080772</v>
       </c>
     </row>
     <row r="87">
@@ -3315,7 +4095,16 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.7500719072435792</v>
+        <v>0.7311813353984797</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1995582247266593</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.6891909825339347</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.1880979755824057</v>
       </c>
     </row>
     <row r="88">
@@ -3348,7 +4137,16 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.1865293830375439</v>
+        <v>0.1818316378247659</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.04962653870763261</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.1634573624531603</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.04461172556036035</v>
       </c>
     </row>
     <row r="89">
@@ -3381,7 +4179,16 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.7097619867581108</v>
+        <v>0.6918866208441323</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.1888336847282021</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.6606013765793991</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.180295135529312</v>
       </c>
     </row>
     <row r="90">
@@ -3414,7 +4221,16 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1.545453448131762</v>
+        <v>1.506531180662133</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4111711737614991</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.441445035434004</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.3934074878367915</v>
       </c>
     </row>
     <row r="91">
@@ -3447,7 +4263,16 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3.052533632867978</v>
+        <v>2.975655529122987</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.8121330592584571</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.848781140684896</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.7775057698375808</v>
       </c>
     </row>
     <row r="92">
@@ -3480,7 +4305,16 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.01854432011416879</v>
+        <v>0.01807728114356851</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.004933755770624593</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.01376996035338997</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.003758176952344423</v>
       </c>
     </row>
     <row r="93">
@@ -3513,7 +4347,16 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>-0.2350874518367907</v>
+        <v>-0.2291667709581745</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.06254551609120483</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.2257204482463167</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.0616049258314183</v>
       </c>
     </row>
     <row r="94">
@@ -3546,7 +4389,16 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>-0.07021877742929379</v>
+        <v>-0.06845031650295709</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.0186818549407634</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.06801532939686609</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.01856313575241978</v>
       </c>
     </row>
     <row r="95">
@@ -3579,7 +4431,16 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>-0.1718398883618921</v>
+        <v>-0.1675120982852268</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.04571836743592435</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-0.1657812213656211</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-0.04524596652991841</v>
       </c>
     </row>
     <row r="96">
@@ -3612,7 +4473,16 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2.543058894409878</v>
+        <v>2.479011919330236</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.6765862225246276</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.295869292559299</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.6266018811570139</v>
       </c>
     </row>
     <row r="97">
@@ -3645,7 +4515,16 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>-0.03071355182107647</v>
+        <v>-0.02994003057372516</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.008171405724269968</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.03177965542577638</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-0.008673486742842898</v>
       </c>
     </row>
     <row r="98">
@@ -3678,7 +4557,16 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1.681345233700306</v>
+        <v>1.639000529643396</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4473254720642457</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.543144101421279</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.4211637831389954</v>
       </c>
     </row>
     <row r="99">
@@ -3711,7 +4599,16 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>16.06626419342724</v>
+        <v>15.66163509707352</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4.274463727367226</v>
+      </c>
+      <c r="K99" t="n">
+        <v>14.65748601931956</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4.000405572958395</v>
       </c>
     </row>
     <row r="100">
@@ -3744,7 +4641,16 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>-0.04176683093014531</v>
+        <v>-0.04071493268837872</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.01111215411800729</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.04332876959915425</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.01182553755435433</v>
       </c>
     </row>
     <row r="101">
@@ -3777,7 +4683,16 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3.135273856583627</v>
+        <v>3.056311939106265</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.8341462715901378</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.982126844764827</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.8138992480253346</v>
       </c>
     </row>
     <row r="102">
@@ -3810,7 +4725,16 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1.693384817153874</v>
+        <v>1.650736896013351</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4505286288246045</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.551314001837371</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.4233935594534308</v>
       </c>
     </row>
     <row r="103">
@@ -3843,7 +4767,16 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>-0.0210347472021311</v>
+        <v>-0.02050498678925868</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.005596339189208156</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.01991992604979346</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.00543666103979079</v>
       </c>
     </row>
     <row r="104">
@@ -3876,7 +4809,16 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>-0.9522606384178791</v>
+        <v>-0.9282779404504274</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.2533509662801385</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.8880174052899868</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-0.2423628289546907</v>
       </c>
     </row>
     <row r="105">
@@ -3909,7 +4851,16 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3.187977004511492</v>
+        <v>3.107687757490416</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.8481680560836288</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.981878893202782</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.8138315756557811</v>
       </c>
     </row>
     <row r="106">
@@ -3942,7 +4893,16 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.7212703122476727</v>
+        <v>0.7031051089895972</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.1918954991783835</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.6881391169075223</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.1878108943524897</v>
       </c>
     </row>
     <row r="107">
@@ -3975,7 +4935,16 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.2025007378581915</v>
+        <v>0.1974007538429876</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.05387575159470184</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.1890025952169686</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0515836777338888</v>
       </c>
     </row>
     <row r="108">
@@ -4008,7 +4977,16 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2.833740046672035</v>
+        <v>2.762372262563558</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.753922560743329</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2.689525458665899</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.7340407911206056</v>
       </c>
     </row>
     <row r="109">
@@ -4041,7 +5019,16 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>8.717803690388925</v>
+        <v>8.498245678211187</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.319390196018337</v>
+      </c>
+      <c r="K109" t="n">
+        <v>8.140367988328745</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2.221716154019854</v>
       </c>
     </row>
     <row r="110">
@@ -4074,7 +5061,16 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.3680812734052412</v>
+        <v>0.3588111412046501</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0979288049139329</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.3411309496219239</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0931034251151539</v>
       </c>
     </row>
     <row r="111">
@@ -4107,7 +5103,16 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.04040589686948526</v>
+        <v>0.03938827377174296</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.01075007471936216</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.03776650642088206</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.01030745262578659</v>
       </c>
     </row>
     <row r="112">
@@ -4140,7 +5145,16 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>5.129985875679571</v>
+        <v>5.000787107117505</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.364843642772245</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4.770546255613048</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.302004982427142</v>
       </c>
     </row>
     <row r="113">
@@ -4173,7 +5187,16 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>54.26672364156068</v>
+        <v>52.9000154208565</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14.43777713451324</v>
+      </c>
+      <c r="K113" t="n">
+        <v>50.0671695627823</v>
+      </c>
+      <c r="L113" t="n">
+        <v>13.6646205138598</v>
       </c>
     </row>
     <row r="114">
@@ -4206,7 +5229,16 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.680518383505642</v>
+        <v>0.6633795181630294</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.1810533619440582</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.652718300829117</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.1781436410559817</v>
       </c>
     </row>
     <row r="115">
@@ -4239,7 +5271,16 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>-1.1423041819264</v>
+        <v>-1.113535234563823</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.303912454848205</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-1.095475247569395</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-0.2989834190964505</v>
       </c>
     </row>
     <row r="116">
@@ -4272,7 +5313,16 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>-1.576773965263655</v>
+        <v>-1.537062890116532</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.4195040638964334</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-1.535539984377199</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.4190884236837334</v>
       </c>
     </row>
     <row r="117">
@@ -4305,7 +5355,16 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2.217689352639317</v>
+        <v>2.161836814180573</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5900209645689337</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.981699426355767</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.5408568303372726</v>
       </c>
     </row>
     <row r="118">
@@ -4338,7 +5397,16 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.03964083923807789</v>
+        <v>0.03864248412786075</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.01054652951087902</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.01770132525962957</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.004831147723698027</v>
       </c>
     </row>
     <row r="119">
@@ -4371,7 +5439,16 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1.723997159174478</v>
+        <v>1.680578265756894</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.4586731074664011</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1.601163901150787</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.4369988813184463</v>
       </c>
     </row>
     <row r="120">
@@ -4404,7 +5481,16 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>26.50493449118464</v>
+        <v>25.83740733222815</v>
+      </c>
+      <c r="J120" t="n">
+        <v>7.051694140891963</v>
+      </c>
+      <c r="K120" t="n">
+        <v>24.55977817230573</v>
+      </c>
+      <c r="L120" t="n">
+        <v>6.702996226065976</v>
       </c>
     </row>
     <row r="121">
@@ -4437,7 +5523,16 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1.097782869654614</v>
+        <v>1.070135192186278</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2920674651163423</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.9903654197234983</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.270296239007505</v>
       </c>
     </row>
     <row r="122">
@@ -4470,7 +5565,16 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2.289891052569481</v>
+        <v>2.232220113252503</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.609230380254504</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1.952792145294524</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.5329672885629159</v>
       </c>
     </row>
     <row r="123">
@@ -4503,7 +5607,16 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>11.99621655114178</v>
+        <v>11.694091663594</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.191618903819323</v>
+      </c>
+      <c r="K123" t="n">
+        <v>11.02677190442262</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3.00949014858696</v>
       </c>
     </row>
     <row r="124">
@@ -4536,7 +5649,16 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.7670801108432977</v>
+        <v>0.7477611871442577</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.2040832934345681</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.7076378528463909</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.1931326017593862</v>
       </c>
     </row>
     <row r="125">
@@ -4569,7 +5691,16 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>-2.105149305923407</v>
+        <v>-2.052131090170803</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.5600794460073153</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-2.039993139893524</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-0.5567666866521626</v>
       </c>
     </row>
     <row r="126">
@@ -4602,7 +5733,16 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.5706325288754195</v>
+        <v>0.5562611403728351</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.1518179968266471</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.500340301852981</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.1365557592393507</v>
       </c>
     </row>
     <row r="127">
@@ -4635,7 +5775,16 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1.125512115965269</v>
+        <v>1.097166077027075</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.2994448900183066</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1.091949578453586</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.2980211731587297</v>
       </c>
     </row>
     <row r="128">
@@ -4668,7 +5817,16 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3.179374283328061</v>
+        <v>3.099301695964559</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.8458792838331221</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.937631601391928</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.8017553497248712</v>
       </c>
     </row>
     <row r="129">
@@ -4701,7 +5859,16 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>-0.4417802651596588</v>
+        <v>-0.4306540227845587</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.1175365782708949</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.443534882168684</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-0.1210520966617587</v>
       </c>
     </row>
     <row r="130">
@@ -4734,7 +5901,16 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>-22.83310283291796</v>
+        <v>-22.25805080744367</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-6.074795526049037</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-21.86396056040442</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-5.96723814421518</v>
       </c>
     </row>
     <row r="131">
@@ -4767,7 +5943,16 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1.178310572880693</v>
+        <v>1.148634804040554</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.3134920316704568</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.124653053215584</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.3069467939998864</v>
       </c>
     </row>
     <row r="132">
@@ -4800,7 +5985,16 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>16.29338340339163</v>
+        <v>15.88303430644623</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.334889275776809</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15.42804193155908</v>
+      </c>
+      <c r="L132" t="n">
+        <v>4.210710134159139</v>
       </c>
     </row>
     <row r="133">
@@ -4833,7 +6027,16 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>11.40271200258139</v>
+        <v>11.11553453568315</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.033715757555445</v>
+      </c>
+      <c r="K133" t="n">
+        <v>10.76214436207021</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2.937266474364139</v>
       </c>
     </row>
     <row r="134">
@@ -4866,7 +6069,16 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2.10007372777078</v>
+        <v>2.047183340527445</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.5587290776548702</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2.025391516057831</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.5527815273083601</v>
       </c>
     </row>
     <row r="135">
@@ -4899,7 +6111,16 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.07126034842101588</v>
+        <v>0.06946565551417051</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.01895896711631291</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.06711844551407753</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.0183183530333181</v>
       </c>
     </row>
     <row r="136">
@@ -4932,7 +6153,16 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.7027805813514566</v>
+        <v>0.6850810422337368</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.1869762669851902</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.6571203473065322</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.1793450729548396</v>
       </c>
     </row>
     <row r="137">
@@ -4965,7 +6195,16 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.4670889114084369</v>
+        <v>0.4553252704110878</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.1242699973829388</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.4434839512119437</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.1210381962914693</v>
       </c>
     </row>
     <row r="138">
@@ -4998,7 +6237,16 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.100910885242911</v>
+        <v>0.09836944313686136</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02684755544128312</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.09111243970241094</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.02486693223319076</v>
       </c>
     </row>
     <row r="139">
@@ -5031,7 +6279,16 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>-0.140711219099843</v>
+        <v>-0.1371674050092909</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.03743651883441345</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-0.1399150146838811</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.03818641230455271</v>
       </c>
     </row>
     <row r="140">
@@ -5064,7 +6321,16 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0.02557701754465654</v>
+        <v>0.02493285998743476</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.006804819865566254</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.02442248503969139</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.006665525392928874</v>
       </c>
     </row>
     <row r="141">
@@ -5097,7 +6363,16 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0.1075011063006614</v>
+        <v>0.1047936893818448</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.0286008977570537</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.100882020650006</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.02753330257915011</v>
       </c>
     </row>
     <row r="142">
@@ -5130,7 +6405,16 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>-0.3967608540359397</v>
+        <v>-0.3867684261818793</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.1055590682810806</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.382705874866249</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-0.1044502933586924</v>
       </c>
     </row>
     <row r="143">
@@ -5163,7 +6447,16 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>-0.1478062264147738</v>
+        <v>-0.1440837244622581</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.0393241606065115</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-0.1408758632525414</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-0.03844865263442724</v>
       </c>
     </row>
     <row r="144">
@@ -5196,7 +6489,16 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>-2.334846665777574</v>
+        <v>-2.276043518690986</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0.621190916673304</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-2.245897826817714</v>
+      </c>
+      <c r="L144" t="n">
+        <v>-0.6129633806816905</v>
       </c>
     </row>
     <row r="145">
@@ -5229,7 +6531,16 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.09854281418829389</v>
+        <v>0.09606101198604484</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02621752510536158</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.09179199750487846</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.02505240106574194</v>
       </c>
     </row>
     <row r="146">
@@ -5262,7 +6573,16 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>2.877475277170485</v>
+        <v>2.805006020648611</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.765558411749075</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.67660139061804</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.7305134799721724</v>
       </c>
     </row>
     <row r="147">
@@ -5295,7 +6615,16 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>2.585439431986264</v>
+        <v>2.520325102454083</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.6878616545999134</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2.438431839050882</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.6655108731034065</v>
       </c>
     </row>
     <row r="148">
@@ -5328,7 +6657,16 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.6727949538935287</v>
+        <v>0.6558506032375339</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.1789985270844797</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.6214857364855439</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.1696194695648318</v>
       </c>
     </row>
     <row r="149">
@@ -5361,7 +6699,16 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>13.8298709847905</v>
+        <v>13.48156548377964</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.679466562166934</v>
+      </c>
+      <c r="K149" t="n">
+        <v>12.75746623836612</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3.481841222261494</v>
       </c>
     </row>
     <row r="150">
@@ -5394,7 +6741,16 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.09500651214797716</v>
+        <v>0.09261377176381975</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02527668443335692</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.07301879046043408</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.01992870918679969</v>
       </c>
     </row>
     <row r="151">
@@ -5427,7 +6783,16 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.5463541318871892</v>
+        <v>0.5325941951643087</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.1453586777195166</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.5065583550464146</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.1382528261589559</v>
       </c>
     </row>
     <row r="152">
@@ -5460,7 +6825,16 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.2163196944911928</v>
+        <v>0.2108716798530858</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.05755231437038367</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.2002149258806802</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.05464381164865725</v>
       </c>
     </row>
     <row r="153">
@@ -5493,7 +6867,16 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1.367960018808822</v>
+        <v>1.333507925926826</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.3639486697398542</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1.27275318298226</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.3473671350934116</v>
       </c>
     </row>
     <row r="154">
@@ -5526,7 +6909,16 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2.373558444545717</v>
+        <v>2.3137803407503</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.631490267672025</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1.799925441779615</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.4912460266865761</v>
       </c>
     </row>
     <row r="155">
@@ -5559,7 +6951,16 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>7.285670912075997</v>
+        <v>7.102181184657598</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.938368227253711</v>
+      </c>
+      <c r="K155" t="n">
+        <v>6.805577643430621</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1.857417479102244</v>
       </c>
     </row>
     <row r="156">
@@ -5592,7 +6993,16 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>7.644206411084259</v>
+        <v>7.451686961931681</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.033757358605808</v>
+      </c>
+      <c r="K156" t="n">
+        <v>7.230513941245556</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1.973393542916363</v>
       </c>
     </row>
     <row r="157">
@@ -5625,7 +7035,16 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>-1.405180721718444</v>
+        <v>-1.369791224894707</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.3738513168380751</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-1.374665598234508</v>
+      </c>
+      <c r="L157" t="n">
+        <v>-0.3751816589067981</v>
       </c>
     </row>
     <row r="158">
@@ -5658,7 +7077,16 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.2223596776753166</v>
+        <v>0.2167595459732574</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.05915926473069253</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.2080012763780454</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.0567689073084185</v>
       </c>
     </row>
     <row r="159">
@@ -5691,7 +7119,16 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>30.33416929863131</v>
+        <v>29.5702028056013</v>
+      </c>
+      <c r="J159" t="n">
+        <v>8.07047019803529</v>
+      </c>
+      <c r="K159" t="n">
+        <v>27.48368700281458</v>
+      </c>
+      <c r="L159" t="n">
+        <v>7.501006278060748</v>
       </c>
     </row>
     <row r="160">
@@ -5724,7 +7161,16 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1.030017135844681</v>
+        <v>1.004076139363607</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.2740382476429059</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.9183121557173836</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.2506310468660981</v>
       </c>
     </row>
     <row r="161">
@@ -5757,7 +7203,16 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.01049119731255592</v>
+        <v>0.01022697635632486</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.002791205337424906</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.009682198041081736</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.002642521299421871</v>
       </c>
     </row>
     <row r="162">
@@ -5790,7 +7245,16 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>6.234917988928787</v>
+        <v>6.077891489094934</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.658813179338137</v>
+      </c>
+      <c r="K162" t="n">
+        <v>5.78206736801828</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1.578075155026823</v>
       </c>
     </row>
     <row r="163">
@@ -5823,7 +7287,16 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>8.203497765778337</v>
+        <v>7.996892555759154</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.182558011943001</v>
+      </c>
+      <c r="K163" t="n">
+        <v>7.61087988167675</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2.077205207881209</v>
       </c>
     </row>
     <row r="164">
@@ -5856,7 +7329,16 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.0254663060829514</v>
+        <v>0.02482493679549578</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.006775364845932256</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.02284779769878009</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.006235752647046968</v>
       </c>
     </row>
     <row r="165">
@@ -5889,7 +7371,16 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0.009153014554027694</v>
+        <v>0.008922495749947286</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.002435178971055482</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.008377651472914192</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.002286476930380511</v>
       </c>
     </row>
     <row r="166">
@@ -5922,7 +7413,16 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>3.111220183909269</v>
+        <v>3.032864058526512</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.8277467408642227</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2.906169159261908</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.7931684386631845</v>
       </c>
     </row>
     <row r="167">
@@ -5955,7 +7455,16 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>5.19159248604588</v>
+        <v>5.060842154109665</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.381234212366175</v>
+      </c>
+      <c r="K167" t="n">
+        <v>4.783100320701178</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1.305431310235037</v>
       </c>
     </row>
     <row r="168">
@@ -5988,7 +7497,16 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>2.8937470246847</v>
+        <v>2.820867963966062</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.7698875447505626</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2.733773688332497</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.7461172730165112</v>
       </c>
     </row>
     <row r="169">
@@ -6021,7 +7539,16 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.4765087090924826</v>
+        <v>0.4645078303540606</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.1267761545726148</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.4439685822074215</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.1211704645762613</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/cscc_dr_2p5.xlsx
+++ b/data/processed/cscc_dr_2p5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>median_2020</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -536,6 +541,9 @@
       <c r="L2" t="n">
         <v>0.2437628060143524</v>
       </c>
+      <c r="M2" t="n">
+        <v>0.5895121574012298</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -578,6 +586,9 @@
       <c r="L3" t="n">
         <v>0.7758201784355386</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.6797382544557361</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -620,6 +631,9 @@
       <c r="L4" t="n">
         <v>0.0150964910979487</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.02743362314402005</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -662,6 +676,9 @@
       <c r="L5" t="n">
         <v>2.00964801311124</v>
       </c>
+      <c r="M5" t="n">
+        <v>1.778176760867041</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -704,6 +721,9 @@
       <c r="L6" t="n">
         <v>0.9408705029623523</v>
       </c>
+      <c r="M6" t="n">
+        <v>1.292399042603069</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -746,6 +766,9 @@
       <c r="L7" t="n">
         <v>-0.0168375348844583</v>
       </c>
+      <c r="M7" t="n">
+        <v>0.01049502116979658</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -788,6 +811,9 @@
       <c r="L8" t="n">
         <v>0.8957043104982225</v>
       </c>
+      <c r="M8" t="n">
+        <v>0.7763857196123817</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -830,6 +856,9 @@
       <c r="L9" t="n">
         <v>-0.2339699527298076</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.1508471563151709</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +901,9 @@
       <c r="L10" t="n">
         <v>0.0318518097115451</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.07068341533740093</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -914,6 +946,9 @@
       <c r="L11" t="n">
         <v>0.1798141700642356</v>
       </c>
+      <c r="M11" t="n">
+        <v>0.1447387937612132</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -956,6 +991,9 @@
       <c r="L12" t="n">
         <v>-0.1094542462801105</v>
       </c>
+      <c r="M12" t="n">
+        <v>0.1095807677225465</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -998,6 +1036,9 @@
       <c r="L13" t="n">
         <v>0.3368786380499992</v>
       </c>
+      <c r="M13" t="n">
+        <v>0.347106169063299</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1040,6 +1081,9 @@
       <c r="L14" t="n">
         <v>1.123912964461777</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.9074065545256643</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1082,6 +1126,9 @@
       <c r="L15" t="n">
         <v>2.539119201730826</v>
       </c>
+      <c r="M15" t="n">
+        <v>2.638275061501107</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1124,6 +1171,9 @@
       <c r="L16" t="n">
         <v>-0.03161983569724065</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.04845431624595233</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1166,6 +1216,9 @@
       <c r="L17" t="n">
         <v>0.02044965179059138</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.01592297621146724</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1208,6 +1261,9 @@
       <c r="L18" t="n">
         <v>-0.01812059300612896</v>
       </c>
+      <c r="M18" t="n">
+        <v>0.01365961645823571</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1250,6 +1306,9 @@
       <c r="L19" t="n">
         <v>-0.2009910548833063</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.1253744774864692</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1292,6 +1351,9 @@
       <c r="L20" t="n">
         <v>0.01227379192437635</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.009203136817422146</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1334,6 +1396,9 @@
       <c r="L21" t="n">
         <v>0.2970692731694703</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.366100290427429</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1376,6 +1441,9 @@
       <c r="L22" t="n">
         <v>5.823630201439062</v>
       </c>
+      <c r="M22" t="n">
+        <v>5.159969509938122</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1418,6 +1486,9 @@
       <c r="L23" t="n">
         <v>0.06299921656891207</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.04557771214351206</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1460,6 +1531,9 @@
       <c r="L24" t="n">
         <v>0.03300973815238006</v>
       </c>
+      <c r="M24" t="n">
+        <v>0.04380251390818848</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1502,6 +1576,9 @@
       <c r="L25" t="n">
         <v>0.1276942928204041</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.1025747004170049</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1544,6 +1621,9 @@
       <c r="L26" t="n">
         <v>0.0960584296007916</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.07549058812560262</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1586,6 +1666,9 @@
       <c r="L27" t="n">
         <v>-2.136910678068336</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.9712930443207799</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1628,6 +1711,9 @@
       <c r="L28" t="n">
         <v>-0.2867491514987219</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.1807868614458582</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1670,6 +1756,9 @@
       <c r="L29" t="n">
         <v>-0.140670045045193</v>
       </c>
+      <c r="M29" t="n">
+        <v>0.06728850404868121</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1712,6 +1801,9 @@
       <c r="L30" t="n">
         <v>14.75743583339312</v>
       </c>
+      <c r="M30" t="n">
+        <v>18.37378375035461</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1754,6 +1846,9 @@
       <c r="L31" t="n">
         <v>0.7345296481464568</v>
       </c>
+      <c r="M31" t="n">
+        <v>0.641019302182864</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1796,6 +1891,9 @@
       <c r="L32" t="n">
         <v>2.194090035213808</v>
       </c>
+      <c r="M32" t="n">
+        <v>1.764333177384147</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1838,6 +1936,9 @@
       <c r="L33" t="n">
         <v>0.278369720754652</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.2307047278884395</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1880,6 +1981,9 @@
       <c r="L34" t="n">
         <v>1.596265954374109</v>
       </c>
+      <c r="M34" t="n">
+        <v>1.315059868872061</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1922,6 +2026,9 @@
       <c r="L35" t="n">
         <v>0.01519202446370709</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.01410124202084692</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1964,6 +2071,9 @@
       <c r="L36" t="n">
         <v>0.006789069122043532</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.007666128769481854</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2006,6 +2116,9 @@
       <c r="L37" t="n">
         <v>0.1770370022985348</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.1687057409252633</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2048,6 +2161,9 @@
       <c r="L38" t="n">
         <v>0.1571188497185927</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.1331703899923479</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2090,6 +2206,9 @@
       <c r="L39" t="n">
         <v>0.02957062000371966</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.03143406620241591</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2132,6 +2251,9 @@
       <c r="L40" t="n">
         <v>-0.308529558822556</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.2131470177729278</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2174,6 +2296,9 @@
       <c r="L41" t="n">
         <v>-1.270835115403551</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.797119335580903</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2216,6 +2341,9 @@
       <c r="L42" t="n">
         <v>0.04148248901065874</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.03225476785340541</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2258,6 +2386,9 @@
       <c r="L43" t="n">
         <v>-0.1500707171664131</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.08831801213551596</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2300,6 +2431,9 @@
       <c r="L44" t="n">
         <v>0.3773350729376744</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.3208733459028276</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2342,6 +2476,9 @@
       <c r="L45" t="n">
         <v>0.7180276084203941</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6946437140150009</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2384,6 +2521,9 @@
       <c r="L46" t="n">
         <v>0.3700932832113598</v>
       </c>
+      <c r="M46" t="n">
+        <v>0.3671860773781305</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2426,6 +2566,9 @@
       <c r="L47" t="n">
         <v>3.832188934518494</v>
       </c>
+      <c r="M47" t="n">
+        <v>3.233937418097204</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2468,6 +2611,9 @@
       <c r="L48" t="n">
         <v>0.06862998367010081</v>
       </c>
+      <c r="M48" t="n">
+        <v>0.05191214686439925</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2510,6 +2656,9 @@
       <c r="L49" t="n">
         <v>0.7236741638537385</v>
       </c>
+      <c r="M49" t="n">
+        <v>1.069414847740961</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2552,6 +2701,9 @@
       <c r="L50" t="n">
         <v>-0.05562992694806754</v>
       </c>
+      <c r="M50" t="n">
+        <v>0.03203741777509456</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2594,6 +2746,9 @@
       <c r="L51" t="n">
         <v>1.926370765785112</v>
       </c>
+      <c r="M51" t="n">
+        <v>2.064076841243763</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2636,6 +2791,9 @@
       <c r="L52" t="n">
         <v>-0.469075161127479</v>
       </c>
+      <c r="M52" t="n">
+        <v>0.2776777428358442</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2678,6 +2836,9 @@
       <c r="L53" t="n">
         <v>0.0130238262102062</v>
       </c>
+      <c r="M53" t="n">
+        <v>0.01516731905464582</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2720,6 +2881,9 @@
       <c r="L54" t="n">
         <v>-0.1474881837924028</v>
       </c>
+      <c r="M54" t="n">
+        <v>0.7537843042253478</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2762,6 +2926,9 @@
       <c r="L55" t="n">
         <v>0.1025587718560241</v>
       </c>
+      <c r="M55" t="n">
+        <v>0.08581961934290915</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2804,6 +2971,9 @@
       <c r="L56" t="n">
         <v>-0.9003044978456305</v>
       </c>
+      <c r="M56" t="n">
+        <v>0.5777255402552949</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2846,6 +3016,9 @@
       <c r="L57" t="n">
         <v>-0.001652840040829004</v>
       </c>
+      <c r="M57" t="n">
+        <v>0.02224217810081331</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2888,6 +3061,9 @@
       <c r="L58" t="n">
         <v>1.126617346946637</v>
       </c>
+      <c r="M58" t="n">
+        <v>1.151772192984974</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2930,6 +3106,9 @@
       <c r="L59" t="n">
         <v>0.544611102350281</v>
       </c>
+      <c r="M59" t="n">
+        <v>0.4782795598866184</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2972,6 +3151,9 @@
       <c r="L60" t="n">
         <v>0.06759919088578993</v>
       </c>
+      <c r="M60" t="n">
+        <v>0.06864920430135026</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3014,6 +3196,9 @@
       <c r="L61" t="n">
         <v>0.05568076524832272</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.05538404842217654</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3056,6 +3241,9 @@
       <c r="L62" t="n">
         <v>0.08753276220028795</v>
       </c>
+      <c r="M62" t="n">
+        <v>0.07933334377922464</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3098,6 +3286,9 @@
       <c r="L63" t="n">
         <v>0.1951775577979617</v>
       </c>
+      <c r="M63" t="n">
+        <v>0.3124261032685376</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3140,6 +3331,9 @@
       <c r="L64" t="n">
         <v>0.5894867096909985</v>
       </c>
+      <c r="M64" t="n">
+        <v>0.4359046232944697</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3182,6 +3376,9 @@
       <c r="L65" t="n">
         <v>0.01570262738950712</v>
       </c>
+      <c r="M65" t="n">
+        <v>0.01246915606926405</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3224,6 +3421,9 @@
       <c r="L66" t="n">
         <v>0.2901544599289604</v>
       </c>
+      <c r="M66" t="n">
+        <v>0.22306102751847</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3266,6 +3466,9 @@
       <c r="L67" t="n">
         <v>0.004410000043247516</v>
       </c>
+      <c r="M67" t="n">
+        <v>0.02708428539507524</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3308,6 +3511,9 @@
       <c r="L68" t="n">
         <v>0.1829934133977787</v>
       </c>
+      <c r="M68" t="n">
+        <v>0.1726440082227763</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3350,6 +3556,9 @@
       <c r="L69" t="n">
         <v>-0.03825338301624644</v>
       </c>
+      <c r="M69" t="n">
+        <v>0.07620993500771144</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3392,6 +3601,9 @@
       <c r="L70" t="n">
         <v>7.773059004400591</v>
       </c>
+      <c r="M70" t="n">
+        <v>6.389685268797369</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3434,6 +3646,9 @@
       <c r="L71" t="n">
         <v>50.79407324074644</v>
       </c>
+      <c r="M71" t="n">
+        <v>41.81935822206088</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3476,6 +3691,9 @@
       <c r="L72" t="n">
         <v>-0.1112013000124296</v>
       </c>
+      <c r="M72" t="n">
+        <v>0.07928695265711787</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3518,6 +3736,9 @@
       <c r="L73" t="n">
         <v>1.310624458484345</v>
       </c>
+      <c r="M73" t="n">
+        <v>1.400564170077981</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3560,6 +3781,9 @@
       <c r="L74" t="n">
         <v>1.542528220388877</v>
       </c>
+      <c r="M74" t="n">
+        <v>1.220926261003791</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3602,6 +3826,9 @@
       <c r="L75" t="n">
         <v>-0.04402988923194443</v>
       </c>
+      <c r="M75" t="n">
+        <v>0.04286054609129175</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3644,6 +3871,9 @@
       <c r="L76" t="n">
         <v>0.8423435226082696</v>
       </c>
+      <c r="M76" t="n">
+        <v>0.7465474825053378</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3686,6 +3916,9 @@
       <c r="L77" t="n">
         <v>0.5147112533726915</v>
       </c>
+      <c r="M77" t="n">
+        <v>0.8709859357644585</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3728,6 +3961,9 @@
       <c r="L78" t="n">
         <v>0.03475497819328714</v>
       </c>
+      <c r="M78" t="n">
+        <v>0.0309075191185675</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3770,6 +4006,9 @@
       <c r="L79" t="n">
         <v>0.2882303023648083</v>
       </c>
+      <c r="M79" t="n">
+        <v>0.273163954542168</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3812,6 +4051,9 @@
       <c r="L80" t="n">
         <v>1.230573455937566</v>
       </c>
+      <c r="M80" t="n">
+        <v>1.679779344217992</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3854,6 +4096,9 @@
       <c r="L81" t="n">
         <v>-0.4977828832244761</v>
       </c>
+      <c r="M81" t="n">
+        <v>0.2463893887477631</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3896,6 +4141,9 @@
       <c r="L82" t="n">
         <v>0.9055685930382196</v>
       </c>
+      <c r="M82" t="n">
+        <v>0.9205856743030638</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3938,6 +4186,9 @@
       <c r="L83" t="n">
         <v>-0.05106983389143908</v>
       </c>
+      <c r="M83" t="n">
+        <v>0.03064711872830438</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3980,6 +4231,9 @@
       <c r="L84" t="n">
         <v>0.4247891442110981</v>
       </c>
+      <c r="M84" t="n">
+        <v>0.3714996092438506</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4022,6 +4276,9 @@
       <c r="L85" t="n">
         <v>-0.2983732496717112</v>
       </c>
+      <c r="M85" t="n">
+        <v>0.4769266036438611</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4064,6 +4321,9 @@
       <c r="L86" t="n">
         <v>0.8468815362080772</v>
       </c>
+      <c r="M86" t="n">
+        <v>0.6402290998227758</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4106,6 +4366,9 @@
       <c r="L87" t="n">
         <v>0.1880979755824057</v>
       </c>
+      <c r="M87" t="n">
+        <v>0.1654257071727496</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4148,6 +4411,9 @@
       <c r="L88" t="n">
         <v>0.04461172556036035</v>
       </c>
+      <c r="M88" t="n">
+        <v>0.06746474820224092</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4190,6 +4456,9 @@
       <c r="L89" t="n">
         <v>0.180295135529312</v>
       </c>
+      <c r="M89" t="n">
+        <v>0.1982819464226568</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4232,6 +4501,9 @@
       <c r="L90" t="n">
         <v>0.3934074878367915</v>
       </c>
+      <c r="M90" t="n">
+        <v>0.3324176832200211</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4274,6 +4546,9 @@
       <c r="L91" t="n">
         <v>0.7775057698375808</v>
       </c>
+      <c r="M91" t="n">
+        <v>0.6167394553541816</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4316,6 +4591,9 @@
       <c r="L92" t="n">
         <v>0.003758176952344423</v>
       </c>
+      <c r="M92" t="n">
+        <v>0.01145673304711429</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4358,6 +4636,9 @@
       <c r="L93" t="n">
         <v>-0.0616049258314183</v>
       </c>
+      <c r="M93" t="n">
+        <v>0.03616520803828326</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4400,6 +4681,9 @@
       <c r="L94" t="n">
         <v>-0.01856313575241978</v>
       </c>
+      <c r="M94" t="n">
+        <v>0.01225449052976332</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4442,6 +4726,9 @@
       <c r="L95" t="n">
         <v>-0.04524596652991841</v>
       </c>
+      <c r="M95" t="n">
+        <v>0.02628803924056858</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4484,6 +4771,9 @@
       <c r="L96" t="n">
         <v>0.6266018811570139</v>
       </c>
+      <c r="M96" t="n">
+        <v>0.672283786566492</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4526,6 +4816,9 @@
       <c r="L97" t="n">
         <v>-0.008673486742842898</v>
       </c>
+      <c r="M97" t="n">
+        <v>0.009253153637425999</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4568,6 +4861,9 @@
       <c r="L98" t="n">
         <v>0.4211637831389954</v>
       </c>
+      <c r="M98" t="n">
+        <v>0.3897141941726905</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4610,6 +4906,9 @@
       <c r="L99" t="n">
         <v>4.000405572958395</v>
       </c>
+      <c r="M99" t="n">
+        <v>3.548526027155779</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4652,6 +4951,9 @@
       <c r="L100" t="n">
         <v>-0.01182553755435433</v>
       </c>
+      <c r="M100" t="n">
+        <v>0.01584345044280334</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4694,6 +4996,9 @@
       <c r="L101" t="n">
         <v>0.8138992480253346</v>
       </c>
+      <c r="M101" t="n">
+        <v>0.626439372389425</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4736,6 +5041,9 @@
       <c r="L102" t="n">
         <v>0.4233935594534308</v>
       </c>
+      <c r="M102" t="n">
+        <v>0.37648172470383</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4778,6 +5086,9 @@
       <c r="L103" t="n">
         <v>-0.00543666103979079</v>
       </c>
+      <c r="M103" t="n">
+        <v>0.003496040505623466</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4820,6 +5131,9 @@
       <c r="L104" t="n">
         <v>-0.2423628289546907</v>
       </c>
+      <c r="M104" t="n">
+        <v>0.1939870596195838</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4862,6 +5176,9 @@
       <c r="L105" t="n">
         <v>0.8138315756557811</v>
       </c>
+      <c r="M105" t="n">
+        <v>0.6134610849394652</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4904,6 +5221,9 @@
       <c r="L106" t="n">
         <v>0.1878108943524897</v>
       </c>
+      <c r="M106" t="n">
+        <v>0.1528993445342033</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4946,6 +5266,9 @@
       <c r="L107" t="n">
         <v>0.0515836777338888</v>
       </c>
+      <c r="M107" t="n">
+        <v>0.04378040973298871</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4988,6 +5311,9 @@
       <c r="L108" t="n">
         <v>0.7340407911206056</v>
       </c>
+      <c r="M108" t="n">
+        <v>0.5913763847251015</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5030,6 +5356,9 @@
       <c r="L109" t="n">
         <v>2.221716154019854</v>
       </c>
+      <c r="M109" t="n">
+        <v>1.734405986028181</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5072,6 +5401,9 @@
       <c r="L110" t="n">
         <v>0.0931034251151539</v>
       </c>
+      <c r="M110" t="n">
+        <v>0.07061991263152745</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5114,6 +5446,9 @@
       <c r="L111" t="n">
         <v>0.01030745262578659</v>
       </c>
+      <c r="M111" t="n">
+        <v>0.0091244634881838</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5156,6 +5491,9 @@
       <c r="L112" t="n">
         <v>1.302004982427142</v>
       </c>
+      <c r="M112" t="n">
+        <v>1.089649170756239</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5198,6 +5536,9 @@
       <c r="L113" t="n">
         <v>13.6646205138598</v>
       </c>
+      <c r="M113" t="n">
+        <v>12.20618554662713</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5240,6 +5581,9 @@
       <c r="L114" t="n">
         <v>0.1781436410559817</v>
       </c>
+      <c r="M114" t="n">
+        <v>0.1411109087025666</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5282,6 +5626,9 @@
       <c r="L115" t="n">
         <v>-0.2989834190964505</v>
       </c>
+      <c r="M115" t="n">
+        <v>0.1951237988103593</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5324,6 +5671,9 @@
       <c r="L116" t="n">
         <v>-0.4190884236837334</v>
       </c>
+      <c r="M116" t="n">
+        <v>0.262780477559548</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5366,6 +5716,9 @@
       <c r="L117" t="n">
         <v>0.5408568303372726</v>
       </c>
+      <c r="M117" t="n">
+        <v>0.5486838239233092</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5408,6 +5761,9 @@
       <c r="L118" t="n">
         <v>0.004831147723698027</v>
       </c>
+      <c r="M118" t="n">
+        <v>0.04909040204090864</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5450,6 +5806,9 @@
       <c r="L119" t="n">
         <v>0.4369988813184463</v>
       </c>
+      <c r="M119" t="n">
+        <v>0.3361324185638609</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5492,6 +5851,9 @@
       <c r="L120" t="n">
         <v>6.702996226065976</v>
       </c>
+      <c r="M120" t="n">
+        <v>5.277235023397379</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5534,6 +5896,9 @@
       <c r="L121" t="n">
         <v>0.270296239007505</v>
       </c>
+      <c r="M121" t="n">
+        <v>0.2476106873923981</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5576,6 +5941,9 @@
       <c r="L122" t="n">
         <v>0.5329672885629159</v>
       </c>
+      <c r="M122" t="n">
+        <v>0.6653149809553514</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5618,6 +5986,9 @@
       <c r="L123" t="n">
         <v>3.00949014858696</v>
       </c>
+      <c r="M123" t="n">
+        <v>2.688756422041594</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5660,6 +6031,9 @@
       <c r="L124" t="n">
         <v>0.1931326017593862</v>
       </c>
+      <c r="M124" t="n">
+        <v>0.1903516449843211</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5702,6 +6076,9 @@
       <c r="L125" t="n">
         <v>-0.5567666866521626</v>
       </c>
+      <c r="M125" t="n">
+        <v>0.3766838476021087</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5744,6 +6121,9 @@
       <c r="L126" t="n">
         <v>0.1365557592393507</v>
       </c>
+      <c r="M126" t="n">
+        <v>0.2245920049676761</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5786,6 +6166,9 @@
       <c r="L127" t="n">
         <v>0.2980211731587297</v>
       </c>
+      <c r="M127" t="n">
+        <v>0.3990421761395095</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5828,6 +6211,9 @@
       <c r="L128" t="n">
         <v>0.8017553497248712</v>
       </c>
+      <c r="M128" t="n">
+        <v>0.6921311711101401</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5870,6 +6256,9 @@
       <c r="L129" t="n">
         <v>-0.1210520966617587</v>
       </c>
+      <c r="M129" t="n">
+        <v>0.1118747425452885</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5912,6 +6301,9 @@
       <c r="L130" t="n">
         <v>-5.96723814421518</v>
       </c>
+      <c r="M130" t="n">
+        <v>3.240835539774661</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5954,6 +6346,9 @@
       <c r="L131" t="n">
         <v>0.3069467939998864</v>
       </c>
+      <c r="M131" t="n">
+        <v>0.2436376275671352</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5996,6 +6391,9 @@
       <c r="L132" t="n">
         <v>4.210710134159139</v>
       </c>
+      <c r="M132" t="n">
+        <v>2.828087206599192</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6038,6 +6436,9 @@
       <c r="L133" t="n">
         <v>2.937266474364139</v>
       </c>
+      <c r="M133" t="n">
+        <v>2.428420727879509</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6080,6 +6481,9 @@
       <c r="L134" t="n">
         <v>0.5527815273083601</v>
       </c>
+      <c r="M134" t="n">
+        <v>0.5421639348173903</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6122,6 +6526,9 @@
       <c r="L135" t="n">
         <v>0.0183183530333181</v>
       </c>
+      <c r="M135" t="n">
+        <v>0.01810791924436679</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6164,6 +6571,9 @@
       <c r="L136" t="n">
         <v>0.1793450729548396</v>
       </c>
+      <c r="M136" t="n">
+        <v>0.1810837752303506</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6206,6 +6616,9 @@
       <c r="L137" t="n">
         <v>0.1210381962914693</v>
       </c>
+      <c r="M137" t="n">
+        <v>0.08886765481395867</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6248,6 +6661,9 @@
       <c r="L138" t="n">
         <v>0.02486693223319076</v>
       </c>
+      <c r="M138" t="n">
+        <v>0.02384334395370031</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6290,6 +6706,9 @@
       <c r="L139" t="n">
         <v>-0.03818641230455271</v>
       </c>
+      <c r="M139" t="n">
+        <v>0.03044291304451285</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6332,6 +6751,9 @@
       <c r="L140" t="n">
         <v>0.006665525392928874</v>
       </c>
+      <c r="M140" t="n">
+        <v>0.005523744417289537</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6374,6 +6796,9 @@
       <c r="L141" t="n">
         <v>0.02753330257915011</v>
       </c>
+      <c r="M141" t="n">
+        <v>0.02010310089931009</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6416,6 +6841,9 @@
       <c r="L142" t="n">
         <v>-0.1044502933586924</v>
       </c>
+      <c r="M142" t="n">
+        <v>0.07447796060073124</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6458,6 +6886,9 @@
       <c r="L143" t="n">
         <v>-0.03844865263442724</v>
       </c>
+      <c r="M143" t="n">
+        <v>0.02743632583047817</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6500,6 +6931,9 @@
       <c r="L144" t="n">
         <v>-0.6129633806816905</v>
       </c>
+      <c r="M144" t="n">
+        <v>0.3738021810788719</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6542,6 +6976,9 @@
       <c r="L145" t="n">
         <v>0.02505240106574194</v>
       </c>
+      <c r="M145" t="n">
+        <v>0.01949604268467899</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6584,6 +7021,9 @@
       <c r="L146" t="n">
         <v>0.7305134799721724</v>
       </c>
+      <c r="M146" t="n">
+        <v>0.6603434531543155</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6626,6 +7066,9 @@
       <c r="L147" t="n">
         <v>0.6655108731034065</v>
       </c>
+      <c r="M147" t="n">
+        <v>0.5588959186640193</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6668,6 +7111,9 @@
       <c r="L148" t="n">
         <v>0.1696194695648318</v>
       </c>
+      <c r="M148" t="n">
+        <v>0.1749483105174399</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6710,6 +7156,9 @@
       <c r="L149" t="n">
         <v>3.481841222261494</v>
       </c>
+      <c r="M149" t="n">
+        <v>3.081279673571439</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6752,6 +7201,9 @@
       <c r="L150" t="n">
         <v>0.01992870918679969</v>
       </c>
+      <c r="M150" t="n">
+        <v>0.05968924929934443</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6794,6 +7246,9 @@
       <c r="L151" t="n">
         <v>0.1382528261589559</v>
       </c>
+      <c r="M151" t="n">
+        <v>0.1497880438879755</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6836,6 +7291,9 @@
       <c r="L152" t="n">
         <v>0.05464381164865725</v>
       </c>
+      <c r="M152" t="n">
+        <v>0.05267979177176828</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6878,6 +7336,9 @@
       <c r="L153" t="n">
         <v>0.3473671350934116</v>
       </c>
+      <c r="M153" t="n">
+        <v>0.3161251079066599</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6920,6 +7381,9 @@
       <c r="L154" t="n">
         <v>0.4912460266865761</v>
       </c>
+      <c r="M154" t="n">
+        <v>1.348572139764837</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6962,6 +7426,9 @@
       <c r="L155" t="n">
         <v>1.857417479102244</v>
       </c>
+      <c r="M155" t="n">
+        <v>1.604097333658975</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7004,6 +7471,9 @@
       <c r="L156" t="n">
         <v>1.973393542916363</v>
       </c>
+      <c r="M156" t="n">
+        <v>1.758063414281368</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7046,6 +7516,9 @@
       <c r="L157" t="n">
         <v>-0.3751816589067981</v>
       </c>
+      <c r="M157" t="n">
+        <v>0.2911891397664912</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7088,6 +7561,9 @@
       <c r="L158" t="n">
         <v>0.0567689073084185</v>
       </c>
+      <c r="M158" t="n">
+        <v>0.07287539605599982</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7130,6 +7606,9 @@
       <c r="L159" t="n">
         <v>7.501006278060748</v>
       </c>
+      <c r="M159" t="n">
+        <v>9.860711839040267</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7172,6 +7651,9 @@
       <c r="L160" t="n">
         <v>0.2506310468660981</v>
       </c>
+      <c r="M160" t="n">
+        <v>0.3231690695140816</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7214,6 +7696,9 @@
       <c r="L161" t="n">
         <v>0.002642521299421871</v>
       </c>
+      <c r="M161" t="n">
+        <v>0.002612085593109465</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7256,6 +7741,9 @@
       <c r="L162" t="n">
         <v>1.578075155026823</v>
       </c>
+      <c r="M162" t="n">
+        <v>1.27083486041677</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7298,6 +7786,9 @@
       <c r="L163" t="n">
         <v>2.077205207881209</v>
       </c>
+      <c r="M163" t="n">
+        <v>1.743434129500171</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7340,6 +7831,9 @@
       <c r="L164" t="n">
         <v>0.006235752647046968</v>
       </c>
+      <c r="M164" t="n">
+        <v>0.007411931854217218</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7382,6 +7876,9 @@
       <c r="L165" t="n">
         <v>0.002286476930380511</v>
       </c>
+      <c r="M165" t="n">
+        <v>0.002437334663740443</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7424,6 +7921,9 @@
       <c r="L166" t="n">
         <v>0.7931684386631845</v>
       </c>
+      <c r="M166" t="n">
+        <v>0.6116851966454359</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7466,6 +7966,9 @@
       <c r="L167" t="n">
         <v>1.305431310235037</v>
       </c>
+      <c r="M167" t="n">
+        <v>1.123285625011801</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7508,6 +8011,9 @@
       <c r="L168" t="n">
         <v>0.7461172730165112</v>
       </c>
+      <c r="M168" t="n">
+        <v>0.6465616064128918</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7549,6 +8055,9 @@
       </c>
       <c r="L169" t="n">
         <v>0.1211704645762613</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.1036457451346533</v>
       </c>
     </row>
   </sheetData>
